--- a/protocol_database/diet.xlsx
+++ b/protocol_database/diet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,6 +543,110 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ragu</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.6830000000000001</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6830000000000001</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>[{"name": "Diet Base", "total": {"protein": 0, "calories": 0, "cost": 0.0, "amount": 0.0, "name": []}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ragu</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6830000000000001</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6830000000000001</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>[{"name": "Diet Base", "total": {"protein": 0, "calories": 0, "cost": 0.0, "amount": 0.0, "name": []}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ragu</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3.08716</v>
+      </c>
+      <c r="D7" t="n">
+        <v>27.12</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.08716</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>[{"name": "Diet Base", "total": {"protein": 0, "calories": 0, "cost": 0.0, "amount": 0.0, "name": []}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ragu</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1.92606</v>
+      </c>
+      <c r="D8" t="n">
+        <v>16.92</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.92606</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>[{"name": "Diet Base", "total": {"protein": 0, "calories": 0, "cost": 0.0, "amount": 0.0, "name": []}}]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/protocol_database/diet.xlsx
+++ b/protocol_database/diet.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,214 +436,125 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Weekday</t>
+          <t>week day</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>recipe</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Cost (£)</t>
+          <t>vendor</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>calories (g/amount)</t>
+          <t>protein</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>protein (g/amount)</t>
+          <t>calories</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>recipe</t>
+          <t>cost</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>meals</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>tortellini</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>[{"name": "food name", "vendor": "vendor name", "protein": 0.1, "calories": 1, "cost": 0.1, "link": "https://github.com", "amount": 205}, {"name": "food name", "vendor": "vendor name", "protein": 0.1, "calories": 1, "cost": 0.1, "link": "https://github.com", "amount": 202}], [{"name": "food name", "vendor": "vendor name", "protein": 0.1, "calories": 1, "cost": 0.1, "link": "https://github.com", "amount": 205}, {"name": "food name", "vendor": "vendor name", "protein": 0.1, "calories": 1, "cost": 0.1, "link": "https://github.com", "amount": 202}]</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>vendor name, vendor name, vendor name, vendor name</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>0.4</v>
       </c>
-      <c r="D2" t="n">
-        <v>2</v>
-      </c>
       <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="n">
         <v>0.4</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>[{"name": "Diet Base", "total": {"protein": 0, "calories": 0, "cost": 0.0, "amount": 0.0, "name": []}}]</t>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://github.com, https://github.com, https://github.com, https://github.com</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>430</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[{"name": "New meal", "recipe": "[{\"name\": \"food name\", \"vendor\": \"vendor name\", \"protein\": 0.1, \"calories\": 1, \"cost\": 0.1, \"link\": \"https://github.com\", \"amount\": 205}, {\"name\": \"food name\", \"vendor\": \"vendor name\", \"protein\": 0.1, \"calories\": 1, \"cost\": 0.1, \"link\": \"https://github.com\", \"amount\": 202}]", "vendor": "vendor name, vendor name", "protein": 0.2, "calories": 2, "cost": 0.2, "link": "https://github.com, https://github.com", "amount": 222}, {"name": "New meal", "recipe": "[{\"name\": \"food name\", \"vendor\": \"vendor name\", \"protein\": 0.1, \"calories\": 1, \"cost\": 0.1, \"link\": \"https://github.com\", \"amount\": 205}, {\"name\": \"food name\", \"vendor\": \"vendor name\", \"protein\": 0.1, \"calories\": 1, \"cost\": 0.1, \"link\": \"https://github.com\", \"amount\": 202}]", "vendor": "vendor name, vendor name", "protein": 0.2, "calories": 2, "cost": 0.2, "link": "https://github.com, https://github.com", "amount": 208}]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>tortellini</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2</v>
+          <t>[{"name": "food name", "vendor": "vendor name", "protein": 0.1, "calories": 1, "cost": 0.1, "link": "https://github.com", "amount": 205}, {"name": "food name", "vendor": "vendor name", "protein": 0.1, "calories": 1, "cost": 0.1, "link": "https://github.com", "amount": 202}], [{"name": "food name", "vendor": "vendor name", "protein": 0.1, "calories": 1, "cost": 0.1, "link": "https://github.com", "amount": 205}, {"name": "food name", "vendor": "vendor name", "protein": 0.1, "calories": 1, "cost": 0.1, "link": "https://github.com", "amount": 202}]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>vendor name, vendor name, vendor name, vendor name</t>
+        </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[{"name": "Diet Base", "total": {"protein": 0, "calories": 0, "cost": 0.0, "amount": 0.0, "name": []}}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Wednesday</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>tortellini</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>[{"name": "Diet Base", "total": {"protein": 0, "calories": 0, "cost": 0.0, "amount": 0.0, "name": []}}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Tuesday</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ragu</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.6830000000000001</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.6830000000000001</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>[{"name": "Diet Base", "total": {"protein": 0, "calories": 0, "cost": 0.0, "amount": 0.0, "name": []}}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Tuesday</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ragu</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.6830000000000001</v>
-      </c>
-      <c r="D6" t="n">
-        <v>6</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.6830000000000001</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>[{"name": "Diet Base", "total": {"protein": 0, "calories": 0, "cost": 0.0, "amount": 0.0, "name": []}}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Tuesday</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ragu</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>3.08716</v>
-      </c>
-      <c r="D7" t="n">
-        <v>27.12</v>
-      </c>
-      <c r="E7" t="n">
-        <v>3.08716</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>[{"name": "Diet Base", "total": {"protein": 0, "calories": 0, "cost": 0.0, "amount": 0.0, "name": []}}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Tuesday</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ragu</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1.92606</v>
-      </c>
-      <c r="D8" t="n">
-        <v>16.92</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1.92606</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>[{"name": "Diet Base", "total": {"protein": 0, "calories": 0, "cost": 0.0, "amount": 0.0, "name": []}}]</t>
+        <v>4</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://github.com, https://github.com, https://github.com, https://github.com</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>430</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[{"name": "New meal", "recipe": "[{\"name\": \"food name\", \"vendor\": \"vendor name\", \"protein\": 0.1, \"calories\": 1, \"cost\": 0.1, \"link\": \"https://github.com\", \"amount\": 205}, {\"name\": \"food name\", \"vendor\": \"vendor name\", \"protein\": 0.1, \"calories\": 1, \"cost\": 0.1, \"link\": \"https://github.com\", \"amount\": 202}]", "vendor": "vendor name, vendor name", "protein": 0.2, "calories": 2, "cost": 0.2, "link": "https://github.com, https://github.com", "amount": 222}, {"name": "New meal", "recipe": "[{\"name\": \"food name\", \"vendor\": \"vendor name\", \"protein\": 0.1, \"calories\": 1, \"cost\": 0.1, \"link\": \"https://github.com\", \"amount\": 205}, {\"name\": \"food name\", \"vendor\": \"vendor name\", \"protein\": 0.1, \"calories\": 1, \"cost\": 0.1, \"link\": \"https://github.com\", \"amount\": 202}]", "vendor": "vendor name, vendor name", "protein": 0.2, "calories": 2, "cost": 0.2, "link": "https://github.com, https://github.com", "amount": 208}]</t>
         </is>
       </c>
     </row>
